--- a/WB/MakePrint/ХарактеристикиКнижки.xlsx
+++ b/WB/MakePrint/ХарактеристикиКнижки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB_manager\Desktop\НОВЫЙ АПИ\копия характеристик\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB_manager\Desktop\НОВЫЙ АПИ\копия характеристик\Новая папка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B65DF-0CCF-4FC8-8DCC-BC3B5594ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493290F3-0E50-4ED9-82BA-50B5E6F98B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,10 +276,10 @@
     <t>Защитный чехол-книжка; Стильный чехол-книга; Красивый чехол-книжка; Чехол-книга; Чехол-книжка</t>
   </si>
   <si>
-    <t>Чехол-книжка с силиконовым основанием для *** / *** с цветным рисунком изготовлен из высококачественных материалов, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на смартфон и не деформируется при использовании. Небольшая толщина книжки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол-книга с принтом не скользит в руках, а также полностью защищает экран. Цветное покрытие мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Картинка может быть нанесена сплошным слоем на заднюю поверхность чехла. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет свои свойства и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам. Цветное покрытие чехла поможет преобразить внешний вид Вашего телефона, а также подчеркнуть Вашу индивидуальность. Материал чехла прекрасно пропускает сигнал. Защитный чехол-книжка с цветной печатью отличает прочность и долгий срок службы, чтобы Ваш смартфон сохранил свой первоначальный вид как можно дольше. Также доступны дизайны с рисунком: 1111. Защитный кейс *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Кейс с изображением *** / Чехол с картинкой *** / Чехол-книжка *** / Чехол-книга ***</t>
-  </si>
-  <si>
     <t>Текстиль; Силикон; Пластик</t>
+  </si>
+  <si>
+    <t>Чехол-книжка с силиконовым основанием для *** / *** с цветным рисунком изготовлен из высококачественных материалов, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на смартфон и не деформируется при использовании. Небольшая толщина книжки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол-книга с принтом не скользит в руках, а также полностью защищает экран. Цветное покрытие мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Картинка может быть нанесена сплошным слоем на заднюю поверхность чехла. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет свои свойства и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам. Цветное покрытие чехла поможет преобразить внешний вид Вашего телефона, а также подчеркнуть Вашу индивидуальность. Материал чехла прекрасно пропускает сигнал. Защитный чехол-книжка с цветной печатью отличает прочность и долгий срок службы, чтобы Ваш смартфон сохранил свой первоначальный вид как можно дольше. Также доступны другие дизайны. Защитный кейс *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Кейс с изображением *** / Чехол с картинкой *** / Чехол-книжка *** / Чехол-книга ***</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
@@ -764,7 +764,7 @@
         <v>80</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>82</v>
@@ -790,7 +790,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -808,7 +808,7 @@
         <v>80</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>82</v>
@@ -834,7 +834,7 @@
         <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -852,7 +852,7 @@
         <v>80</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>82</v>
@@ -878,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>16</v>
@@ -896,7 +896,7 @@
         <v>80</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>82</v>
@@ -922,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>
@@ -940,7 +940,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>82</v>
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
@@ -984,7 +984,7 @@
         <v>80</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>82</v>
@@ -1010,7 +1010,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
@@ -1028,7 +1028,7 @@
         <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>82</v>
@@ -1054,7 +1054,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
@@ -1072,7 +1072,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>82</v>
@@ -1098,7 +1098,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>16</v>
@@ -1116,7 +1116,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>82</v>
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>16</v>
@@ -1160,7 +1160,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>82</v>
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
@@ -1204,7 +1204,7 @@
         <v>80</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>82</v>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
@@ -1248,7 +1248,7 @@
         <v>80</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>82</v>
@@ -1274,7 +1274,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
@@ -1292,7 +1292,7 @@
         <v>80</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>82</v>
@@ -1318,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -1336,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>82</v>
@@ -1362,7 +1362,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>82</v>
@@ -1406,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
@@ -1424,7 +1424,7 @@
         <v>80</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>82</v>
@@ -1450,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>16</v>
@@ -1468,7 +1468,7 @@
         <v>80</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>82</v>
@@ -1494,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>16</v>
@@ -1512,7 +1512,7 @@
         <v>80</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>82</v>
@@ -1538,7 +1538,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
@@ -1556,7 +1556,7 @@
         <v>80</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>82</v>
@@ -1582,7 +1582,7 @@
         <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>16</v>
@@ -1600,7 +1600,7 @@
         <v>80</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>82</v>
@@ -1626,7 +1626,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>16</v>
@@ -1644,7 +1644,7 @@
         <v>80</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>82</v>
@@ -1670,7 +1670,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>16</v>
@@ -1688,7 +1688,7 @@
         <v>80</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>82</v>
@@ -1714,7 +1714,7 @@
         <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>16</v>
@@ -1732,7 +1732,7 @@
         <v>80</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>82</v>

--- a/WB/MakePrint/ХарактеристикиКнижки.xlsx
+++ b/WB/MakePrint/ХарактеристикиКнижки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF4FB8-13D0-4508-9BB8-F7FD8ECEAEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A390060-4713-43C2-AE99-9D0F70499A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,13 +282,13 @@
     <t>Чехол книга для модели</t>
   </si>
   <si>
-    <t>Текстиль; Силикон; Силикон</t>
-  </si>
-  <si>
     <t>Чехол книга; Чехол книжка; Чехол с крышкой</t>
   </si>
   <si>
     <t>Чехол книга для ; Чехол книжка для;Чехол книга на; Чехол книжка на</t>
+  </si>
+  <si>
+    <t>Текстиль; Силикон; Ткань;Экокожа</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -808,13 +808,13 @@
         <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -849,13 +849,13 @@
         <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
@@ -890,13 +890,13 @@
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -931,13 +931,13 @@
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
@@ -972,13 +972,13 @@
         <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -1013,13 +1013,13 @@
         <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -1054,13 +1054,13 @@
         <v>76</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
         <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
@@ -1095,13 +1095,13 @@
         <v>73</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -1136,13 +1136,13 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -1177,13 +1177,13 @@
         <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -1218,13 +1218,13 @@
         <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
@@ -1259,13 +1259,13 @@
         <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
@@ -1300,13 +1300,13 @@
         <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
@@ -1341,13 +1341,13 @@
         <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
@@ -1382,13 +1382,13 @@
         <v>47</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
@@ -1423,13 +1423,13 @@
         <v>49</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
@@ -1464,13 +1464,13 @@
         <v>52</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
@@ -1505,13 +1505,13 @@
         <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>15</v>
@@ -1546,13 +1546,13 @@
         <v>58</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
@@ -1587,13 +1587,13 @@
         <v>61</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
@@ -1628,13 +1628,13 @@
         <v>64</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
@@ -1669,13 +1669,13 @@
         <v>67</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
